--- a/dados/historico/times/rodada_26/Vasco da Gama.xlsx
+++ b/dados/historico/times/rodada_26/Vasco da Gama.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E5" t="n">
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E6" t="n">
+        <v>11</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E7" t="n">
+        <v>12</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1838,7 +1826,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1855,10 +1843,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2024,7 +2010,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2041,10 +2027,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E9" t="n">
+        <v>16</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2210,7 +2194,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2227,10 +2211,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E10" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2396,7 +2378,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2413,10 +2395,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2584,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2601,10 +2581,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E12" t="n">
+        <v>23</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2770,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2787,10 +2765,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2956,7 +2932,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2973,10 +2949,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3142,7 +3116,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3159,10 +3133,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E15" t="n">
+        <v>13</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3330,7 +3302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3347,10 +3319,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E16" t="n">
+        <v>19</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3518,7 +3488,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3535,10 +3505,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E17" t="n">
+        <v>21</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3706,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3723,10 +3691,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E18" t="n">
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3894,7 +3860,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3911,10 +3877,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E19" t="n">
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4082,7 +4046,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4099,10 +4063,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4270,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4287,10 +4249,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E21" t="n">
+        <v>7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4458,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4475,10 +4435,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E22" t="n">
+        <v>10</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4646,7 +4604,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4663,10 +4621,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E23" t="n">
+        <v>17</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4832,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4849,10 +4805,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E24" t="n">
+        <v>25</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5018,7 +4972,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5035,10 +4989,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E25" t="n">
+        <v>22</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5204,7 +5156,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5221,10 +5173,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E26" t="n">
+        <v>5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5392,7 +5342,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5409,10 +5359,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E27" t="n">
+        <v>15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Vasco da Gama.xlsx
+++ b/dados/historico/times/rodada_26/Vasco da Gama.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>418</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>421</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>430</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>441</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>517</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
